--- a/dataset/Income/Income.xlsx
+++ b/dataset/Income/Income.xlsx
@@ -7,30 +7,36 @@
     <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="ACSST1Y2019.S1901_data_with_ove" sheetId="1" r:id="rId1"/>
+    <sheet name="ACSST5Y2019.S1701_data_with_ove" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Geographic Area Name</t>
-  </si>
-  <si>
-    <t>Households</t>
-  </si>
-  <si>
-    <t>Households_Median_income</t>
-  </si>
-  <si>
-    <t>Households_Mean_income</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>Geographic</t>
+  </si>
+  <si>
+    <t>Total_Poverty_Pop</t>
+  </si>
+  <si>
+    <t>Under18</t>
+  </si>
+  <si>
+    <t>18to64</t>
+  </si>
+  <si>
+    <t>over65</t>
   </si>
   <si>
     <t>Albany County, New York</t>
   </si>
   <si>
+    <t>Allegany County, New York</t>
+  </si>
+  <si>
     <t>Bronx County, New York</t>
   </si>
   <si>
@@ -49,21 +55,57 @@
     <t>Chemung County, New York</t>
   </si>
   <si>
+    <t>Chenango County, New York</t>
+  </si>
+  <si>
     <t>Clinton County, New York</t>
   </si>
   <si>
+    <t>Columbia County, New York</t>
+  </si>
+  <si>
+    <t>Cortland County, New York</t>
+  </si>
+  <si>
+    <t>Delaware County, New York</t>
+  </si>
+  <si>
     <t>Dutchess County, New York</t>
   </si>
   <si>
     <t>Erie County, New York</t>
   </si>
   <si>
+    <t>Essex County, New York</t>
+  </si>
+  <si>
+    <t>Franklin County, New York</t>
+  </si>
+  <si>
+    <t>Fulton County, New York</t>
+  </si>
+  <si>
+    <t>Genesee County, New York</t>
+  </si>
+  <si>
+    <t>Greene County, New York</t>
+  </si>
+  <si>
+    <t>Hamilton County, New York</t>
+  </si>
+  <si>
+    <t>Herkimer County, New York</t>
+  </si>
+  <si>
     <t>Jefferson County, New York</t>
   </si>
   <si>
     <t>Kings County, New York</t>
   </si>
   <si>
+    <t>Lewis County, New York</t>
+  </si>
+  <si>
     <t>Livingston County, New York</t>
   </si>
   <si>
@@ -73,6 +115,9 @@
     <t>Monroe County, New York</t>
   </si>
   <si>
+    <t>Montgomery County, New York</t>
+  </si>
+  <si>
     <t>Nassau County, New York</t>
   </si>
   <si>
@@ -94,9 +139,15 @@
     <t>Orange County, New York</t>
   </si>
   <si>
+    <t>Orleans County, New York</t>
+  </si>
+  <si>
     <t>Oswego County, New York</t>
   </si>
   <si>
+    <t>Otsego County, New York</t>
+  </si>
+  <si>
     <t>Putnam County, New York</t>
   </si>
   <si>
@@ -121,6 +172,15 @@
     <t>Schenectady County, New York</t>
   </si>
   <si>
+    <t>Schoharie County, New York</t>
+  </si>
+  <si>
+    <t>Schuyler County, New York</t>
+  </si>
+  <si>
+    <t>Seneca County, New York</t>
+  </si>
+  <si>
     <t>Steuben County, New York</t>
   </si>
   <si>
@@ -130,6 +190,9 @@
     <t>Sullivan County, New York</t>
   </si>
   <si>
+    <t>Tioga County, New York</t>
+  </si>
+  <si>
     <t>Tompkins County, New York</t>
   </si>
   <si>
@@ -139,10 +202,19 @@
     <t>Warren County, New York</t>
   </si>
   <si>
+    <t>Washington County, New York</t>
+  </si>
+  <si>
     <t>Wayne County, New York</t>
   </si>
   <si>
     <t>Westchester County, New York</t>
+  </si>
+  <si>
+    <t>Wyoming County, New York</t>
+  </si>
+  <si>
+    <t>Yates County, New York</t>
   </si>
 </sst>
 </file>
@@ -150,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,24 +238,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,38 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -263,9 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,8 +326,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,12 +357,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,6 +389,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,174 +570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,17 +583,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +638,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,56 +680,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,130 +703,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,22 +1153,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="29.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="30.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="1" max="1" width="71.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,551 +1181,1062 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>128284</v>
+        <v>291149</v>
       </c>
       <c r="C2">
-        <v>69953</v>
+        <v>55662</v>
       </c>
       <c r="D2">
-        <v>91080</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>187174</v>
+      </c>
+      <c r="E2">
+        <v>48313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>513890</v>
+        <v>41742</v>
       </c>
       <c r="C3">
-        <v>41432</v>
+        <v>9194</v>
       </c>
       <c r="D3">
-        <v>59664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>24210</v>
+      </c>
+      <c r="E3">
+        <v>8338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>79309</v>
+        <v>1400341</v>
       </c>
       <c r="C4">
-        <v>52010</v>
+        <v>350007</v>
       </c>
       <c r="D4">
-        <v>68572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>880059</v>
+      </c>
+      <c r="E4">
+        <v>170275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>33056</v>
+        <v>183481</v>
       </c>
       <c r="C5">
-        <v>50912</v>
+        <v>36630</v>
       </c>
       <c r="D5">
-        <v>64706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>112087</v>
+      </c>
+      <c r="E5">
+        <v>34764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>31489</v>
+        <v>74679</v>
       </c>
       <c r="C6">
-        <v>58665</v>
+        <v>16732</v>
       </c>
       <c r="D6">
-        <v>78177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>43939</v>
+      </c>
+      <c r="E6">
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>55345</v>
+        <v>72846</v>
       </c>
       <c r="C7">
-        <v>50272</v>
+        <v>14769</v>
       </c>
       <c r="D7">
-        <v>65136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>44401</v>
+      </c>
+      <c r="E7">
+        <v>13676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>33490</v>
+        <v>123076</v>
       </c>
       <c r="C8">
-        <v>60782</v>
+        <v>25699</v>
       </c>
       <c r="D8">
-        <v>73297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>73127</v>
+      </c>
+      <c r="E8">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>31422</v>
+        <v>80273</v>
       </c>
       <c r="C9">
-        <v>60198</v>
+        <v>17937</v>
       </c>
       <c r="D9">
-        <v>81738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>47424</v>
+      </c>
+      <c r="E9">
+        <v>14912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>110529</v>
+        <v>47050</v>
       </c>
       <c r="C10">
-        <v>85901</v>
+        <v>9618</v>
       </c>
       <c r="D10">
-        <v>112299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>28030</v>
+      </c>
+      <c r="E10">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>398326</v>
+        <v>72677</v>
       </c>
       <c r="C11">
-        <v>60652</v>
+        <v>14008</v>
       </c>
       <c r="D11">
-        <v>79972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>45844</v>
+      </c>
+      <c r="E11">
+        <v>12825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>41214</v>
+        <v>58561</v>
       </c>
       <c r="C12">
-        <v>53917</v>
+        <v>10124</v>
       </c>
       <c r="D12">
-        <v>67368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>35107</v>
+      </c>
+      <c r="E12">
+        <v>13330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>978091</v>
+        <v>44338</v>
       </c>
       <c r="C13">
-        <v>66937</v>
+        <v>8954</v>
       </c>
       <c r="D13">
-        <v>99472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>27981</v>
+      </c>
+      <c r="E13">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>23409</v>
+        <v>42647</v>
       </c>
       <c r="C14">
-        <v>59173</v>
+        <v>7295</v>
       </c>
       <c r="D14">
-        <v>75881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>24818</v>
+      </c>
+      <c r="E14">
+        <v>10534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>25986</v>
+        <v>277234</v>
       </c>
       <c r="C15">
-        <v>62918</v>
+        <v>54876</v>
       </c>
       <c r="D15">
-        <v>88100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>173901</v>
+      </c>
+      <c r="E15">
+        <v>48457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>305284</v>
+        <v>893029</v>
       </c>
       <c r="C16">
-        <v>62103</v>
+        <v>184366</v>
       </c>
       <c r="D16">
-        <v>84666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>551804</v>
+      </c>
+      <c r="E16">
+        <v>156859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>449798</v>
+        <v>34792</v>
       </c>
       <c r="C17">
-        <v>118453</v>
+        <v>5998</v>
       </c>
       <c r="D17">
-        <v>157774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>20526</v>
+      </c>
+      <c r="E17">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>768203</v>
+        <v>44890</v>
       </c>
       <c r="C18">
-        <v>93651</v>
+        <v>9601</v>
       </c>
       <c r="D18">
-        <v>170453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>27108</v>
+      </c>
+      <c r="E18">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>90625</v>
+        <v>52435</v>
       </c>
       <c r="C19">
-        <v>56304</v>
+        <v>10397</v>
       </c>
       <c r="D19">
-        <v>73374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>32133</v>
+      </c>
+      <c r="E19">
+        <v>9905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>90273</v>
+        <v>56919</v>
       </c>
       <c r="C20">
-        <v>57391</v>
+        <v>11399</v>
       </c>
       <c r="D20">
-        <v>75821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>35286</v>
+      </c>
+      <c r="E20">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>183218</v>
+        <v>44075</v>
       </c>
       <c r="C21">
-        <v>61577</v>
+        <v>7371</v>
       </c>
       <c r="D21">
-        <v>83860</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>26682</v>
+      </c>
+      <c r="E21">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>46025</v>
+        <v>4479</v>
       </c>
       <c r="C22">
-        <v>66568</v>
+        <v>606</v>
       </c>
       <c r="D22">
-        <v>92560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2509</v>
+      </c>
+      <c r="E22">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>131421</v>
+        <v>60914</v>
       </c>
       <c r="C23">
-        <v>84458</v>
+        <v>12517</v>
       </c>
       <c r="D23">
-        <v>105297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>36391</v>
+      </c>
+      <c r="E23">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>46640</v>
+        <v>106273</v>
       </c>
       <c r="C24">
-        <v>58459</v>
+        <v>26600</v>
       </c>
       <c r="D24">
-        <v>74434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>65129</v>
+      </c>
+      <c r="E24">
+        <v>14544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>34470</v>
+        <v>2564539</v>
       </c>
       <c r="C25">
-        <v>106204</v>
+        <v>586707</v>
       </c>
       <c r="D25">
-        <v>132523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1633150</v>
+      </c>
+      <c r="E25">
+        <v>344682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>784552</v>
+        <v>26270</v>
       </c>
       <c r="C26">
-        <v>73696</v>
+        <v>6003</v>
       </c>
       <c r="D26">
-        <v>96631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>15640</v>
+      </c>
+      <c r="E26">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>65790</v>
+        <v>57472</v>
       </c>
       <c r="C27">
-        <v>71574</v>
+        <v>11080</v>
       </c>
       <c r="D27">
-        <v>85141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>35822</v>
+      </c>
+      <c r="E27">
+        <v>10570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>166297</v>
+        <v>66057</v>
       </c>
       <c r="C28">
-        <v>89821</v>
+        <v>13671</v>
       </c>
       <c r="D28">
-        <v>113245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>40115</v>
+      </c>
+      <c r="E28">
+        <v>12271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>101424</v>
+        <v>718498</v>
       </c>
       <c r="C29">
-        <v>100916</v>
+        <v>153357</v>
       </c>
       <c r="D29">
-        <v>133396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>444552</v>
+      </c>
+      <c r="E29">
+        <v>120589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>42832</v>
+        <v>48265</v>
       </c>
       <c r="C30">
-        <v>52108</v>
+        <v>11032</v>
       </c>
       <c r="D30">
-        <v>68320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>28743</v>
+      </c>
+      <c r="E30">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>93547</v>
+        <v>1336958</v>
       </c>
       <c r="C31">
-        <v>89932</v>
+        <v>290289</v>
       </c>
       <c r="D31">
-        <v>105941</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>815601</v>
+      </c>
+      <c r="E31">
+        <v>231068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>62534</v>
+        <v>1584693</v>
       </c>
       <c r="C32">
-        <v>65773</v>
+        <v>231782</v>
       </c>
       <c r="D32">
-        <v>85444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>1094249</v>
+      </c>
+      <c r="E32">
+        <v>258662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>39283</v>
+        <v>207027</v>
       </c>
       <c r="C33">
-        <v>52951</v>
+        <v>41748</v>
       </c>
       <c r="D33">
-        <v>70353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>127237</v>
+      </c>
+      <c r="E33">
+        <v>38042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>499744</v>
+        <v>217905</v>
       </c>
       <c r="C34">
-        <v>106228</v>
+        <v>47615</v>
       </c>
       <c r="D34">
-        <v>138724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>130266</v>
+      </c>
+      <c r="E34">
+        <v>40024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>28960</v>
+        <v>443667</v>
       </c>
       <c r="C35">
-        <v>60137</v>
+        <v>97189</v>
       </c>
       <c r="D35">
-        <v>75269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>272159</v>
+      </c>
+      <c r="E35">
+        <v>74319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>40322</v>
+        <v>106104</v>
       </c>
       <c r="C36">
-        <v>58626</v>
+        <v>21855</v>
       </c>
       <c r="D36">
-        <v>92501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>63478</v>
+      </c>
+      <c r="E36">
+        <v>20771</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>69376</v>
+        <v>370342</v>
       </c>
       <c r="C37">
-        <v>64087</v>
+        <v>95640</v>
       </c>
       <c r="D37">
-        <v>87755</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>224213</v>
+      </c>
+      <c r="E37">
+        <v>50489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>29593</v>
+        <v>38089</v>
       </c>
       <c r="C38">
-        <v>64985</v>
+        <v>7920</v>
       </c>
       <c r="D38">
-        <v>83323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>23385</v>
+      </c>
+      <c r="E38">
+        <v>6784</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>36634</v>
+        <v>113014</v>
       </c>
       <c r="C39">
-        <v>61730</v>
+        <v>24232</v>
       </c>
       <c r="D39">
-        <v>80472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>70401</v>
+      </c>
+      <c r="E39">
+        <v>18381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>355136</v>
+        <v>54849</v>
       </c>
       <c r="C40">
-        <v>101908</v>
+        <v>9407</v>
       </c>
       <c r="D40">
-        <v>160616</v>
+        <v>33445</v>
+      </c>
+      <c r="E40">
+        <v>11997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>97312</v>
+      </c>
+      <c r="C41">
+        <v>19547</v>
+      </c>
+      <c r="D41">
+        <v>61462</v>
+      </c>
+      <c r="E41">
+        <v>16303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>2259939</v>
+      </c>
+      <c r="C42">
+        <v>453207</v>
+      </c>
+      <c r="D42">
+        <v>1466680</v>
+      </c>
+      <c r="E42">
+        <v>340052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>153415</v>
+      </c>
+      <c r="C43">
+        <v>30474</v>
+      </c>
+      <c r="D43">
+        <v>97660</v>
+      </c>
+      <c r="E43">
+        <v>25281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>468810</v>
+      </c>
+      <c r="C44">
+        <v>102681</v>
+      </c>
+      <c r="D44">
+        <v>292975</v>
+      </c>
+      <c r="E44">
+        <v>73154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>320132</v>
+      </c>
+      <c r="C45">
+        <v>90135</v>
+      </c>
+      <c r="D45">
+        <v>180676</v>
+      </c>
+      <c r="E45">
+        <v>49321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>96981</v>
+      </c>
+      <c r="C46">
+        <v>21389</v>
+      </c>
+      <c r="D46">
+        <v>58047</v>
+      </c>
+      <c r="E46">
+        <v>17545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>224972</v>
+      </c>
+      <c r="C47">
+        <v>46176</v>
+      </c>
+      <c r="D47">
+        <v>139420</v>
+      </c>
+      <c r="E47">
+        <v>39376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>150847</v>
+      </c>
+      <c r="C48">
+        <v>33133</v>
+      </c>
+      <c r="D48">
+        <v>92782</v>
+      </c>
+      <c r="E48">
+        <v>24932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>29842</v>
+      </c>
+      <c r="C49">
+        <v>5382</v>
+      </c>
+      <c r="D49">
+        <v>17912</v>
+      </c>
+      <c r="E49">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>17648</v>
+      </c>
+      <c r="C50">
+        <v>3319</v>
+      </c>
+      <c r="D50">
+        <v>10676</v>
+      </c>
+      <c r="E50">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>31431</v>
+      </c>
+      <c r="C51">
+        <v>6677</v>
+      </c>
+      <c r="D51">
+        <v>18613</v>
+      </c>
+      <c r="E51">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>94727</v>
+      </c>
+      <c r="C52">
+        <v>20273</v>
+      </c>
+      <c r="D52">
+        <v>56936</v>
+      </c>
+      <c r="E52">
+        <v>17518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>1456653</v>
+      </c>
+      <c r="C53">
+        <v>311523</v>
+      </c>
+      <c r="D53">
+        <v>906807</v>
+      </c>
+      <c r="E53">
+        <v>238323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>72592</v>
+      </c>
+      <c r="C54">
+        <v>15746</v>
+      </c>
+      <c r="D54">
+        <v>43299</v>
+      </c>
+      <c r="E54">
+        <v>13547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>48253</v>
+      </c>
+      <c r="C55">
+        <v>10191</v>
+      </c>
+      <c r="D55">
+        <v>28684</v>
+      </c>
+      <c r="E55">
+        <v>9378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>89120</v>
+      </c>
+      <c r="C56">
+        <v>14487</v>
+      </c>
+      <c r="D56">
+        <v>60711</v>
+      </c>
+      <c r="E56">
+        <v>13922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>170910</v>
+      </c>
+      <c r="C57">
+        <v>31027</v>
+      </c>
+      <c r="D57">
+        <v>106327</v>
+      </c>
+      <c r="E57">
+        <v>33556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>63306</v>
+      </c>
+      <c r="C58">
+        <v>11424</v>
+      </c>
+      <c r="D58">
+        <v>38359</v>
+      </c>
+      <c r="E58">
+        <v>13523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>58233</v>
+      </c>
+      <c r="C59">
+        <v>11376</v>
+      </c>
+      <c r="D59">
+        <v>35615</v>
+      </c>
+      <c r="E59">
+        <v>11242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>89283</v>
+      </c>
+      <c r="C60">
+        <v>18985</v>
+      </c>
+      <c r="D60">
+        <v>54143</v>
+      </c>
+      <c r="E60">
+        <v>16155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>945745</v>
+      </c>
+      <c r="C61">
+        <v>211189</v>
+      </c>
+      <c r="D61">
+        <v>577618</v>
+      </c>
+      <c r="E61">
+        <v>156938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>37552</v>
+      </c>
+      <c r="C62">
+        <v>7714</v>
+      </c>
+      <c r="D62">
+        <v>22943</v>
+      </c>
+      <c r="E62">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>23828</v>
+      </c>
+      <c r="C63">
+        <v>5437</v>
+      </c>
+      <c r="D63">
+        <v>13531</v>
+      </c>
+      <c r="E63">
+        <v>4860</v>
       </c>
     </row>
   </sheetData>
